--- a/cleaned_data/aggregated_data.xlsx
+++ b/cleaned_data/aggregated_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="189" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="189" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TTC per Pilot" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,6 @@
     <sheet name="Success Rate" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Incomplete Units" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Unexecuted Units" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Location" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -93,6 +92,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1305,7 +1305,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1695,7 +1695,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2985,7 +2985,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3000,7 +3000,7 @@
   </sheetPr>
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3344,7 +3344,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3357,10 +3357,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3421,10 +3421,374 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1028</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3437,10 +3801,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3501,36 +3865,374 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1022</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/cleaned_data/aggregated_data.xlsx
+++ b/cleaned_data/aggregated_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="189" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="189" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TTC per Pilot" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,13 +15,14 @@
     <sheet name="Success Rate" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Incomplete Units" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Unexecuted Units" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Running Locations" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="39">
   <si>
     <t>P1U1</t>
   </si>
@@ -74,10 +75,70 @@
     <t>P32U1</t>
   </si>
   <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
     <t>Success</t>
   </si>
   <si>
     <t>Tries</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Pilot Count</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>atlas-net2.bu.edu</t>
+  </si>
+  <si>
+    <t>gate02.grid.umich.edu</t>
+  </si>
+  <si>
+    <t>gluskap.phys.uconn.edu</t>
+  </si>
+  <si>
+    <t>gpce01.fnal.gov</t>
+  </si>
+  <si>
+    <t>gpce02.fnal.gov</t>
+  </si>
+  <si>
+    <t>iut2-gk.mwt2.org</t>
+  </si>
+  <si>
+    <t>mwt2-gk.campuscluster.illinois.edu</t>
+  </si>
+  <si>
+    <t>osg-ce.clemson.edu</t>
+  </si>
+  <si>
+    <t>osg-gk.mwt2.org</t>
+  </si>
+  <si>
+    <t>osg.hyak.washington.edu</t>
+  </si>
+  <si>
+    <t>osggrid01.hep.wisc.edu</t>
+  </si>
+  <si>
+    <t>proton.fis.cinvestav.mx</t>
+  </si>
+  <si>
+    <t>red-gw1.unl.edu</t>
+  </si>
+  <si>
+    <t>red-gw2.unl.edu</t>
+  </si>
+  <si>
+    <t>uct2-gk.mwt2.org</t>
   </si>
 </sst>
 </file>
@@ -178,10 +239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -190,725 +251,869 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B1114)</f>
+        <v>289.55762366815</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">AVERAGE(C4:C1114)</f>
+        <v>290.042634701729</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">AVERAGE(D4:D1114)</f>
+        <v>303.676243673671</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">AVERAGE(E4:E1114)</f>
+        <v>344.906281059438</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F1114)</f>
+        <v>405.177044486999</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G1114)</f>
+        <v>604.64179596901</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">AVERAGE(H4:H1114)</f>
+        <v>981.310348828633</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">AVERAGE(I4:I1114)</f>
+        <v>1582.74259197712</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">AVERAGE(J4:J1114)</f>
+        <v>2874.53155052662</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">AVERAGE(K4:K1114)</f>
+        <v>5482.24150145054</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">AVERAGE(L4:L1114)</f>
+        <v>11128.6725459099</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">AVERAGE(O4:O1114)</f>
+        <v>294.85389983654</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">AVERAGE(P4:P1114)</f>
+        <v>270.913577059905</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">AVERAGE(Q4:Q1114)</f>
+        <v>317.666917532682</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">AVERAGE(R4:R1114)</f>
+        <v>256.150507085025</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">AVERAGE(S4:S1114)</f>
+        <v>246.428036166776</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(B4:B1114)</f>
+        <v>129.989034942098</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(C4:C1114)</f>
+        <v>63.3508677441139</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(D4:D1114)</f>
+        <v>86.8246725586785</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(E4:E1114)</f>
+        <v>52.9265860472533</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F4:F1114)</f>
+        <v>58.7382299281772</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(G4:G1114)</f>
+        <v>36.1079145674976</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(H4:H1114)</f>
+        <v>188.610522696582</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(I4:I1114)</f>
+        <v>72.569565975031</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(J4:J1114)</f>
+        <v>44.4146615468347</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(K4:K1114)</f>
+        <v>18.0287145376201</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(L4:L1114)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(O4:O1114)</f>
+        <v>115.663976151357</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(P4:P1114)</f>
+        <v>69.8298377823109</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(Q4:Q1114)</f>
+        <v>155.890156233308</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(R4:R1114)</f>
+        <v>74.7082987479923</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(S4:S1114)</f>
+        <v>88.1109385733508</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
         <v>204.511245012283</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="C4" s="0" t="n">
         <v>296.230762004852</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>515.607455015183</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>321.77574300766</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>354.591387987137</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>568.464371919632</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>940.076342105865</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>1486.89535403252</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>2805.91588306427</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>5500.27021598816</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>11128.6725459099</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>162.337971925735</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>228.617074966431</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>265.712709903717</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>422.899366855621</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>328.580233097076</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
         <v>381.088284015656</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="C5" s="0" t="n">
         <v>204.440490961075</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>293.477708101273</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>405.7930560112</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>360.462217092514</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>574.500066995621</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>852.379526853562</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>1684.07909703255</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>2882.60970902443</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>5464.21278691292</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>348.660603046417</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>406.767963886261</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>542.501477956772</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>305.722726106644</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>251.810101032257</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
         <v>208.987840175629</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="C6" s="0" t="n">
         <v>289.734221935272</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>367.612779140472</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>392.751399993896</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>551.812886953354</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>607.67311501503</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>864.505342006683</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>1551.76215386391</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>2930.14677596092</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>512.005254983902</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>214.486138105392</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>366.650313138962</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>291.922212839127</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>235.010396957397</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
         <v>233.684640169144</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="C7" s="0" t="n">
         <v>241.001769065857</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>286.711427211761</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>321.419955015182</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>454.778020143509</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>670.121446847916</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>938.087410926819</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>1608.23376297951</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>2879.45383405685</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>344.782163858414</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>309.071642160416</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>293.304196119308</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>308.914402961731</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>243.55767416954</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
         <v>297.603416919708</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="C8" s="0" t="n">
         <v>262.595402002335</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>193.269448041916</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>386.88537979126</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>366.608244895935</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>602.449979066849</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>1396.5016272068</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>166.810471057892</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>241.249763011932</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>262.963699817657</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>261.953732967377</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>242.982791185379</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
         <v>267.534820079803</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="C9" s="0" t="n">
         <v>447.989267110825</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>234.239186048508</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>296.253134965897</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>390.891946792603</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>896.31184387207</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>370.353735923767</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>435.213712930679</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>302.701573848724</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>231.161906003952</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>220.061317920685</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
         <v>229.093449115753</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="C10" s="0" t="n">
         <v>255.565934896469</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>335.159861803055</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>326.742599964142</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>344.521609067917</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>174.014781951904</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>378.62193107605</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>176.920635938644</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>254.833073139191</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>202.637987852097</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
         <v>254.932064056396</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="C11" s="0" t="n">
         <v>307.336688995361</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>263.876393795013</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>279.965401887894</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>390.243360996246</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>279.86621594429</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>263.520925045013</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>182.494740962982</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>200.469992876053</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>351.472284078598</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
         <v>186.178122997284</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="C12" s="0" t="n">
         <v>336.84715795517</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>192.522399187088</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>302.725028991699</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>416.794595956802</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>192.290288925171</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>769.595367193222</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>298.14763712883</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>266.754791975021</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
         <v>668.04265499115</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="C13" s="0" t="n">
         <v>258.684652090073</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>341.370038032532</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>306.223479032516</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>421.066174983978</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>279.414324045181</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>245.977344989777</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>277.732395887375</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>327.111991167068</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
         <v>253.477322816849</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>316.591984033585</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>453.433912992477</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>223.613071918488</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>198.156565904617</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>146.646632909775</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>312.000181913376</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O13" s="0" t="n">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="0" t="n">
         <v>317.997174024582</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>160.041893959045</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>252.598426103592</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>284.011553049088</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O14" s="0" t="n">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P16" s="0" t="n">
         <v>296.939649105072</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>397.078294992447</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>265.385624885559</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>186.463710069656</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O15" s="0" t="n">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P17" s="0" t="n">
         <v>183.629130840302</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>253.72337603569</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>193.971362113953</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>365.686350107193</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O16" s="0" t="n">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="0" t="n">
         <v>213.529910087585</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>191.60915517807</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>199.088855028152</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>347.838595867157</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O17" s="0" t="n">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="0" t="n">
         <v>234.168208122253</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>311.07525396347</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>194.13809299469</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>335.336982965469</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O18" s="0" t="n">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P20" s="0" t="n">
         <v>225.739384889603</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>654.508624076843</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>165.41313791275</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>125.993243932724</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O19" s="0" t="n">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P21" s="0" t="n">
         <v>375.30811214447</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>269.170674085617</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>145.505764961243</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>302.247339010239</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O20" s="0" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P22" s="0" t="n">
         <v>263.168298006058</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>218.287928104401</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>256.484379053116</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>285.783871889114</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O21" s="0" t="n">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="0" t="n">
         <v>162.480585098267</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>389.543609857559</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>266.332231044769</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>270.454308032989</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O22" s="0" t="n">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="0" t="n">
         <v>295.431108951569</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>555.783707141876</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>236.650064945221</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>81.6841008663178</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O23" s="0" t="n">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P25" s="0" t="n">
         <v>273.729572057724</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>215.550848007202</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>219.087532043457</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>239.421795845032</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O24" s="0" t="n">
-        <v>211.111407995224</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>194.096199035645</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>221.095645904541</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>328.049561977386</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O25" s="0" t="n">
-        <v>275.826472043991</v>
-      </c>
-      <c r="P25" s="0" t="n">
-        <v>355.402396917343</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>186.381196022034</v>
-      </c>
-      <c r="R25" s="0" t="n">
-        <v>301.95174908638</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P26" s="0" t="n">
-        <v>543.88837313652</v>
+        <v>211.111407995224</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>369.713301897049</v>
+        <v>194.096199035645</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>295.143913030624</v>
+        <v>221.095645904541</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>328.049561977386</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P27" s="0" t="n">
+        <v>275.826472043991</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>355.402396917343</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>186.381196022034</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>301.95174908638</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q28" s="0" t="n">
+        <v>543.88837313652</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>369.713301897049</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>295.143913030624</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q29" s="0" t="n">
         <v>246.086756944656</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>183.223989009857</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>2.37576484680176</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P28" s="0" t="n">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q30" s="0" t="n">
         <v>184.386245965958</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>305.41292309761</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>256.511140108109</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P29" s="0" t="n">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q31" s="0" t="n">
         <v>200.746570110321</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>289.784430027008</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>242.795186042786</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P30" s="0" t="n">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q32" s="0" t="n">
         <v>574.058734893799</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>419.980616092682</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>33.3125021457672</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P31" s="0" t="n">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q33" s="0" t="n">
         <v>263.686250925064</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R33" s="0" t="n">
         <v>124.573361873627</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S33" s="0" t="n">
         <v>182.428086042404</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P32" s="0" t="n">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q34" s="0" t="n">
         <v>162.187654972076</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R34" s="0" t="n">
         <v>389.259321928024</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S34" s="0" t="n">
         <v>189.799614906311</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P33" s="0" t="n">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q35" s="0" t="n">
         <v>217.45018696785</v>
       </c>
-      <c r="Q33" s="0" t="n">
+      <c r="R35" s="0" t="n">
         <v>312.331890106201</v>
       </c>
     </row>
@@ -928,10 +1133,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -940,365 +1145,509 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B1114)</f>
+        <v>289.55762366815</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">AVERAGE(C4:C1114)</f>
+        <v>290.042634701729</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">AVERAGE(D4:D1114)</f>
+        <v>303.676243673671</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">AVERAGE(E4:E1114)</f>
+        <v>344.906281059438</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F1114)</f>
+        <v>405.177044486999</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G1114)</f>
+        <v>604.64179596901</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">AVERAGE(H4:H1114)</f>
+        <v>981.310348828633</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">AVERAGE(I4:I1114)</f>
+        <v>1582.74259197712</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">AVERAGE(J4:J1114)</f>
+        <v>2874.53155052662</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">AVERAGE(K4:K1114)</f>
+        <v>5482.24150145054</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">AVERAGE(L4:L1114)</f>
+        <v>11128.6725459099</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">AVERAGE(O4:O1114)</f>
+        <v>316.024895250875</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">AVERAGE(P4:P1114)</f>
+        <v>365.953416466833</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">AVERAGE(Q4:Q1114)</f>
+        <v>542.12972426425</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">AVERAGE(R4:R1114)</f>
+        <v>532.1908608675</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">AVERAGE(S4:S1114)</f>
+        <v>698.292237997</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(B4:B1114)</f>
+        <v>129.989034942098</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(C4:C1114)</f>
+        <v>63.3508677441139</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(D4:D1114)</f>
+        <v>86.8246725586785</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(E4:E1114)</f>
+        <v>52.9265860472533</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F4:F1114)</f>
+        <v>58.7382299281772</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(G4:G1114)</f>
+        <v>36.1079145674976</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(H4:H1114)</f>
+        <v>188.610522696582</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(I4:I1114)</f>
+        <v>72.569565975031</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(J4:J1114)</f>
+        <v>44.4146615468347</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(K4:K1114)</f>
+        <v>18.0287145376201</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(L4:L1114)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(O4:O1114)</f>
+        <v>105.582631913221</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(P4:P1114)</f>
+        <v>57.1049127805906</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(Q4:Q1114)</f>
+        <v>162.989405411944</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(R4:R1114)</f>
+        <v>76.1991640325</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(S4:S1114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
         <v>204.511245012283</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="C4" s="0" t="n">
         <v>296.230762004852</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>515.607455015183</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>321.77574300766</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>354.591387987137</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>568.464371919632</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>940.076342105865</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>1486.89535403252</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>2805.91588306427</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>5500.27021598816</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>11128.6725459099</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>292.515146017</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>399.502357006</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>803.087239981</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>455.991696835</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>698.292237997</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
         <v>381.088284015656</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="C5" s="0" t="n">
         <v>204.440490961075</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>293.477708101273</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>405.7930560112</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>360.462217092514</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>574.500066995621</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>852.379526853562</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>1684.07909703255</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>2882.60970902443</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>5464.21278691292</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>370.473335028</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>406.767963886</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>542.501477957</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>608.3900249</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
         <v>208.987840175629</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="C6" s="0" t="n">
         <v>289.734221935272</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>367.612779140472</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>392.751399993896</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>551.812886953354</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>607.67311501503</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>864.505342006683</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>1551.76215386391</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>2930.14677596092</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>241.784083128</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>349.895787001</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>366.650313139</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
         <v>233.684640169144</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="C7" s="0" t="n">
         <v>241.001769065857</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>286.711427211761</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>321.419955015182</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>454.778020143509</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>670.121446847916</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>938.087410926819</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>1608.23376297951</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>2879.45383405685</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>184.816467047</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>344.496865034</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>456.27986598</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
         <v>297.603416919708</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="C8" s="0" t="n">
         <v>262.595402002335</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>193.269448041916</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>386.88537979126</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>366.608244895935</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>602.449979066849</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>1396.5016272068</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>184.986418009</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>259.843812943</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
         <v>267.534820079803</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="C9" s="0" t="n">
         <v>447.989267110825</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>234.239186048508</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>296.253134965897</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>390.891946792603</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>896.31184387207</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>396.836293936</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>435.213712931</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
         <v>229.093449115753</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="C10" s="0" t="n">
         <v>255.565934896469</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>335.159861803055</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>326.742599964142</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>344.521609067917</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>512.005254984</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
         <v>254.932064056396</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="C11" s="0" t="n">
         <v>307.336688995361</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>263.876393795013</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>279.965401887894</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>390.243360996246</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>344.782163858</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
         <v>186.178122997284</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="C12" s="0" t="n">
         <v>336.84715795517</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>192.522399187088</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>302.725028991699</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>416.794595956802</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
         <v>668.04265499115</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="C13" s="0" t="n">
         <v>258.684652090073</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>341.370038032532</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>306.223479032516</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>421.066174983978</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
         <v>253.477322816849</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>316.591984033585</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>453.433912992477</v>
       </c>
     </row>
@@ -1318,10 +1667,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1330,365 +1679,509 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B1114)</f>
+        <v>10.0906839090909</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">AVERAGE(C4:C1114)</f>
+        <v>20.2247553</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">AVERAGE(D4:D1114)</f>
+        <v>40.4070555454546</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">AVERAGE(E4:E1114)</f>
+        <v>81.1000489090909</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F1114)</f>
+        <v>164.6335428</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G1114)</f>
+        <v>323.715766</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">AVERAGE(H4:H1114)</f>
+        <v>696.255653333333</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">AVERAGE(I4:I1114)</f>
+        <v>1317.10893075</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">AVERAGE(J4:J1114)</f>
+        <v>2591.842169</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">AVERAGE(K4:K1114)</f>
+        <v>5191.618225</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">AVERAGE(L4:L1114)</f>
+        <v>10629.901131</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">AVERAGE(O4:O1114)</f>
+        <v>15.612514875</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">AVERAGE(P4:P1114)</f>
+        <v>36.955535</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">AVERAGE(Q4:Q1114)</f>
+        <v>68.9579995</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">AVERAGE(R4:R1114)</f>
+        <v>90.6042555</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">AVERAGE(S4:S1114)</f>
+        <v>135.05088</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(B4:B1114)</f>
+        <v>0.0319632834286027</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(C4:C1114)</f>
+        <v>0.0532610592197525</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(D4:D1114)</f>
+        <v>0.100255515124981</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(E4:E1114)</f>
+        <v>0.745476455364494</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F4:F1114)</f>
+        <v>5.81747360880895</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(G4:G1114)</f>
+        <v>0.174443042240161</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(H4:H1114)</f>
+        <v>111.028246375427</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(I4:I1114)</f>
+        <v>35.7971322035368</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(J4:J1114)</f>
+        <v>2.55264235676079</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(K4:K1114)</f>
+        <v>4.70038000000022</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(L4:L1114)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(O4:O1114)</f>
+        <v>4.76596270337338</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(P4:P1114)</f>
+        <v>4.53132872649031</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(Q4:Q1114)</f>
+        <v>6.8228226572251</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(R4:R1114)</f>
+        <v>1.9982515</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(S4:S1114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
         <v>10.106963</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="C4" s="0" t="n">
         <v>20.265468</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>40.426401</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>80.912299</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>162.112401</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>323.512718</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>648.80394</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>1294.125106</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>2590.401518</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>5186.917845</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>10629.901131</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>10.089424</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>40.33182</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>76.128222</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>88.606004</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>135.05088</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
         <v>10.040164</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="C5" s="0" t="n">
         <v>20.126203</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>40.315031</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>80.622046</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>161.57068</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>323.682561</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>647.051144</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>1379.01277</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>2588.505611</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>5196.318605</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>13.734476</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>39.091115</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>71.645717</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>92.602507</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
         <v>10.141078</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="C6" s="0" t="n">
         <v>20.263533</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>40.439344</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>83.431504</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>179.97872</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>323.952575</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>647.489832</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>1299.6506</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>2593.380781</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>10.038411</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>33.147523</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>57.744993</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
         <v>10.110032</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="C7" s="0" t="n">
         <v>20.217264</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>40.428409</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>80.956053</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>170.638444</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>323.879412</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>641.583441</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>1295.647247</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>2595.080766</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>10.064364</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>40.257423</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>70.313066</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
         <v>10.042636</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="C8" s="0" t="n">
         <v>20.223221</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>40.470013</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>80.943002</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>161.889072</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>323.551564</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>944.46632</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>20.141172</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>28.566006</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
         <v>10.108486</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="C9" s="0" t="n">
         <v>20.206463</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>40.559924</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>80.942216</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>161.104536</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>648.139243</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>20.436547</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>40.339323</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
         <v>10.066897</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="C10" s="0" t="n">
         <v>20.332384</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>40.28739</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>80.66545</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>160.47182</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>20.207401</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
         <v>10.115308</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="C11" s="0" t="n">
         <v>20.212618</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>40.456216</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>80.848109</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>162.046265</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>20.188324</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
         <v>10.103111</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="C12" s="0" t="n">
         <v>20.167311</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>40.463209</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>80.946836</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>164.564779</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
         <v>10.107724</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="C13" s="0" t="n">
         <v>20.233088</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>40.181008</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>80.925486</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>161.958711</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
         <v>10.055124</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>40.450666</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>80.907537</v>
       </c>
     </row>
@@ -1708,10 +2201,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1720,1265 +2213,1411 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B1114)</f>
+        <v>253.906625181818</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">AVERAGE(C4:C1114)</f>
+        <v>242.8341382</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">AVERAGE(D4:D1114)</f>
+        <v>239.178891</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">AVERAGE(E4:E1114)</f>
+        <v>239.155886636364</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F1114)</f>
+        <v>216.4236528</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G1114)</f>
+        <v>255.0964056</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">AVERAGE(H4:H1114)</f>
+        <v>259.768637166667</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">AVERAGE(I4:I1114)</f>
+        <v>245.261105</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">AVERAGE(J4:J1114)</f>
+        <v>245.2765164</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">AVERAGE(K4:K1114)</f>
+        <v>274.0414072</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">AVERAGE(L4:L1114)</f>
+        <v>285.4330794</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">AVERAGE(M4:M1114)</f>
+        <v>196.139471</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">AVERAGE(O4:O1114)</f>
+        <v>251.5059554</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">AVERAGE(P4:P1114)</f>
+        <v>235.735188916667</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">AVERAGE(Q4:Q1114)</f>
+        <v>284.64543384375</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">AVERAGE(R4:R1114)</f>
+        <v>226.120300186441</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">AVERAGE(S4:S1114)</f>
+        <v>187.025226345133</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(B4:B1114)</f>
+        <v>129.012926311823</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(C4:C1114)</f>
+        <v>62.9020025168562</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(D4:D1114)</f>
+        <v>86.7178112248754</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(E4:E1114)</f>
+        <v>51.4396855539566</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F4:F1114)</f>
+        <v>53.5627643091973</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(G4:G1114)</f>
+        <v>37.0726675897119</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(H4:H1114)</f>
+        <v>82.6539006965259</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(I4:I1114)</f>
+        <v>44.4358761079717</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(J4:J1114)</f>
+        <v>45.3580470488254</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(K4:K1114)</f>
+        <v>69.318652493312</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(L4:L1114)</f>
+        <v>101.698307582603</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(M4:M1114)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(O4:O1114)</f>
+        <v>113.789510910641</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(P4:P1114)</f>
+        <v>69.5955702957473</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(Q4:Q1114)</f>
+        <v>155.56448123587</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(R4:R1114)</f>
+        <v>72.1789827734338</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(S4:S1114)</f>
+        <v>55.476759327606</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
         <v>167.832887</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="C4" s="0" t="n">
         <v>242.012859</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>450.996888</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>217.494137</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>168.452002</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>219.776878</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>267.224148</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>167.375533</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>183.498082</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>378.557125</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>192.231482</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>196.139471</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>256.040799</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>187.185289</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>225.46596</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>234.855763</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>221.085842</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
         <v>346.662197</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="C5" s="0" t="n">
         <v>158.881595</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>230.090499</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>301.6762</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>174.171121</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>222.295233</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>181.469491</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>281.763254</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>266.982408</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>168.957642</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>230.077522</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>329.869481</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>348.213316</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>231.520804</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>220.94329</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>169.359997</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
         <v>174.005569</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="C6" s="0" t="n">
         <v>244.796939</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>301.946496</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>286.243868</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>348.985648</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>259.738086</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>192.738436</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>260.830443</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>310.58311</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>279.704714</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>463.33568</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>231.121173</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>266.622956</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>739.2854</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>216.383253</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>161.404058</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
         <v>196.918928</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="C7" s="0" t="n">
         <v>195.851544</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>223.22055</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>217.65255</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>260.622501</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>322.277341</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>272.451986</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>227.35761</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>206.053931</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>239.759009</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>333.537902</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>205.618533</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>232.321151</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>367.118117</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>200.766219</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>139.064397</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
         <v>257.020595</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="C8" s="0" t="n">
         <v>216.185374</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>128.734464</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>276.400132</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>181.738923</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>251.39449</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>427.989206</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>288.978685</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>259.265051</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>303.228546</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>207.982811</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>149.807077</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P8" s="0" t="n">
         <v>369.664937</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>619.618899</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R8" s="0" t="n">
         <v>346.815779</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>191.084762</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
         <v>232.019149</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="C9" s="0" t="n">
         <v>399.882136</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>169.679273</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>191.818387</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>206.790547</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>216.738556</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>126.404037</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>232.86122</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>522.272025</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>331.180862</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>164.784187</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
         <v>194.853806</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="C10" s="0" t="n">
         <v>202.712517</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>270.457553</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>219.068347</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>159.49556</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>136.384329</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>151.983456</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>511.495921</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>268.613905</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>155.842847</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
         <v>221.195499</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="C11" s="0" t="n">
         <v>264.01057</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>196.748642</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>175.628183</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>203.706072</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>307.297211</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>127.899914</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>539.257378</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>383.195985</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>157.906579</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
         <v>152.555094</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="C12" s="0" t="n">
         <v>288.787837</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>128.94757</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>198.465709</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>229.034149</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>505.53141</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>174.675243</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>505.322812</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>276.008444</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>146.066007</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
         <v>629.418116</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="C13" s="0" t="n">
         <v>215.220011</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>276.842958</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>202.363404</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>231.240005</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>154.794612</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>161.633534</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>271.339517</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>261.3674</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>142.704401</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
         <v>220.491037</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>253.302908</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>343.903836</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>194.531701</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>181.619638</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>214.725196</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>276.171513</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>161.240876</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N13" s="0" t="n">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O15" s="0" t="n">
         <v>476.094445</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>263.020277</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>219.016053</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>231.630984</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>151.497886</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N14" s="0" t="n">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O16" s="0" t="n">
         <v>141.093608</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>248.521459</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>237.302573</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>198.134354</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>140.141855</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N15" s="0" t="n">
-        <v>309.891658</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>247.181231</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>183.756058</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>222.947041</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>137.962519</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N16" s="0" t="n">
-        <v>248.109257</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>204.331195</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>211.639931</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>167.537673</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>145.139339</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O17" s="0" t="n">
-        <v>211.305021</v>
+        <v>309.891658</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>231.38374</v>
+        <v>247.181231</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>145.136539</v>
+        <v>183.756058</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>135.834115</v>
+        <v>222.947041</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>137.962519</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O18" s="0" t="n">
+        <v>248.109257</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>204.331195</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>211.639931</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>167.537673</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>145.139339</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="0" t="n">
+        <v>211.305021</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>231.38374</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>145.136539</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>135.834115</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P20" s="0" t="n">
         <v>204.664462</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>329.461497</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>243.097131</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>196.276328</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O19" s="0" t="n">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P21" s="0" t="n">
         <v>194.289814</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>143.215127</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>235.817164</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>173.568043</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O20" s="0" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P22" s="0" t="n">
         <v>195.676131</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>167.712915</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>214.971447</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>109.519123</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O21" s="0" t="n">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="0" t="n">
         <v>176.486666</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>161.261447</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>203.233089</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>124.541833</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O22" s="0" t="n">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="0" t="n">
         <v>397.214423</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>186.245458</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>217.776632</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>193.609057</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O23" s="0" t="n">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P25" s="0" t="n">
         <v>288.296103</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>162.159338</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>147.004666</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>181.399173</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O24" s="0" t="n">
-        <v>346.065668</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>152.192855</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>161.542843</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>156.783606</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O25" s="0" t="n">
-        <v>245.91143</v>
-      </c>
-      <c r="P25" s="0" t="n">
-        <v>130.370785</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>129.629396</v>
-      </c>
-      <c r="R25" s="0" t="n">
-        <v>164.921571</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P26" s="0" t="n">
-        <v>253.191556</v>
+        <v>346.065668</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>115.127661</v>
+        <v>152.192855</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>214.906126</v>
+        <v>161.542843</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>156.783606</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P27" s="0" t="n">
+        <v>245.91143</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>130.370785</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>129.629396</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>164.921571</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q28" s="0" t="n">
+        <v>253.191556</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>115.127661</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>214.906126</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q29" s="0" t="n">
         <v>147.800031</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>224.71858</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>498.380225</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P28" s="0" t="n">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q30" s="0" t="n">
         <v>129.046292</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>228.988947</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>193.933346</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P29" s="0" t="n">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q31" s="0" t="n">
         <v>280.466426</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>202.908464</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>153.767641</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P30" s="0" t="n">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q32" s="0" t="n">
         <v>357.528537</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>184.115956</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>168.669302</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P31" s="0" t="n">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q33" s="0" t="n">
         <v>323.295187</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R33" s="0" t="n">
         <v>184.930544</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S33" s="0" t="n">
         <v>110.050612</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P32" s="0" t="n">
-        <v>168.637556</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>153.256487</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>185.968309</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P33" s="0" t="n">
-        <v>185.548492</v>
-      </c>
-      <c r="Q33" s="0" t="n">
-        <v>167.820926</v>
-      </c>
-      <c r="R33" s="0" t="n">
-        <v>151.529462</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q34" s="0" t="n">
-        <v>148.677911</v>
+        <v>168.637556</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>140.307776</v>
+        <v>153.256487</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>185.968309</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q35" s="0" t="n">
+        <v>185.548492</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>167.820926</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>151.529462</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R36" s="0" t="n">
+        <v>148.677911</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>140.307776</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R37" s="0" t="n">
         <v>301.194901</v>
       </c>
-      <c r="R35" s="0" t="n">
+      <c r="S37" s="0" t="n">
         <v>159.440906</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q36" s="0" t="n">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R38" s="0" t="n">
         <v>257.475482</v>
       </c>
-      <c r="R36" s="0" t="n">
+      <c r="S38" s="0" t="n">
         <v>169.087755</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q37" s="0" t="n">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R39" s="0" t="n">
         <v>242.293069</v>
       </c>
-      <c r="R37" s="0" t="n">
+      <c r="S39" s="0" t="n">
         <v>147.165255</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q38" s="0" t="n">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R40" s="0" t="n">
         <v>372.662979</v>
       </c>
-      <c r="R38" s="0" t="n">
+      <c r="S40" s="0" t="n">
         <v>105.417477</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q39" s="0" t="n">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R41" s="0" t="n">
         <v>357.623811</v>
       </c>
-      <c r="R39" s="0" t="n">
+      <c r="S41" s="0" t="n">
         <v>210.874072</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q40" s="0" t="n">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R42" s="0" t="n">
         <v>280.860407</v>
       </c>
-      <c r="R40" s="0" t="n">
+      <c r="S42" s="0" t="n">
         <v>192.156595</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q41" s="0" t="n">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R43" s="0" t="n">
         <v>352.668506</v>
       </c>
-      <c r="R41" s="0" t="n">
+      <c r="S43" s="0" t="n">
         <v>149.884124</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q42" s="0" t="n">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R44" s="0" t="n">
         <v>221.685075</v>
       </c>
-      <c r="R42" s="0" t="n">
+      <c r="S44" s="0" t="n">
         <v>362.184725</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q43" s="0" t="n">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R45" s="0" t="n">
         <v>210.47732</v>
       </c>
-      <c r="R43" s="0" t="n">
+      <c r="S45" s="0" t="n">
         <v>289.280977</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q44" s="0" t="n">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R46" s="0" t="n">
         <v>193.353493</v>
       </c>
-      <c r="R44" s="0" t="n">
+      <c r="S46" s="0" t="n">
         <v>256.182493</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q45" s="0" t="n">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R47" s="0" t="n">
         <v>505.405264</v>
       </c>
-      <c r="R45" s="0" t="n">
+      <c r="S47" s="0" t="n">
         <v>220.479319</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q46" s="0" t="n">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R48" s="0" t="n">
         <v>273.214336</v>
       </c>
-      <c r="R46" s="0" t="n">
+      <c r="S48" s="0" t="n">
         <v>202.143761</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q47" s="0" t="n">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R49" s="0" t="n">
         <v>207.421433</v>
       </c>
-      <c r="R47" s="0" t="n">
+      <c r="S49" s="0" t="n">
         <v>210.282876</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q48" s="0" t="n">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R50" s="0" t="n">
         <v>192.331061</v>
       </c>
-      <c r="R48" s="0" t="n">
+      <c r="S50" s="0" t="n">
         <v>205.057915</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q49" s="0" t="n">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R51" s="0" t="n">
         <v>159.473526</v>
       </c>
-      <c r="R49" s="0" t="n">
+      <c r="S51" s="0" t="n">
         <v>187.395979</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q50" s="0" t="n">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R52" s="0" t="n">
         <v>139.882357</v>
       </c>
-      <c r="R50" s="0" t="n">
+      <c r="S52" s="0" t="n">
         <v>170.280006</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q51" s="0" t="n">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R53" s="0" t="n">
         <v>141.232471</v>
       </c>
-      <c r="R51" s="0" t="n">
+      <c r="S53" s="0" t="n">
         <v>251.010305</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q52" s="0" t="n">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R54" s="0" t="n">
         <v>249.346957</v>
       </c>
-      <c r="R52" s="0" t="n">
+      <c r="S54" s="0" t="n">
         <v>214.684677</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q53" s="0" t="n">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R55" s="0" t="n">
         <v>180.764576</v>
       </c>
-      <c r="R53" s="0" t="n">
+      <c r="S55" s="0" t="n">
         <v>198.493627</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q54" s="0" t="n">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R56" s="0" t="n">
         <v>234.099988</v>
       </c>
-      <c r="R54" s="0" t="n">
+      <c r="S56" s="0" t="n">
         <v>202.257487</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q55" s="0" t="n">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R57" s="0" t="n">
         <v>234.370236</v>
       </c>
-      <c r="R55" s="0" t="n">
+      <c r="S57" s="0" t="n">
         <v>180.009419</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q56" s="0" t="n">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R58" s="0" t="n">
         <v>208.309749</v>
       </c>
-      <c r="R56" s="0" t="n">
+      <c r="S58" s="0" t="n">
         <v>249.409507</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q57" s="0" t="n">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R59" s="0" t="n">
         <v>167.585104</v>
       </c>
-      <c r="R57" s="0" t="n">
+      <c r="S59" s="0" t="n">
         <v>225.301905</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q58" s="0" t="n">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R60" s="0" t="n">
         <v>197.197385</v>
       </c>
-      <c r="R58" s="0" t="n">
+      <c r="S60" s="0" t="n">
         <v>216.119478</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q59" s="0" t="n">
-        <v>188.994263</v>
-      </c>
-      <c r="R59" s="0" t="n">
-        <v>200.980767</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q60" s="0" t="n">
-        <v>125.867114</v>
-      </c>
-      <c r="R60" s="0" t="n">
-        <v>175.826211</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R61" s="0" t="n">
-        <v>269.803057</v>
+        <v>188.994263</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>200.980767</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R62" s="0" t="n">
+        <v>125.867114</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>175.826211</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S63" s="0" t="n">
+        <v>269.803057</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S64" s="0" t="n">
         <v>252.970873</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R63" s="0" t="n">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S65" s="0" t="n">
         <v>239.501464</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R64" s="0" t="n">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S66" s="0" t="n">
         <v>222.291252</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R65" s="0" t="n">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S67" s="0" t="n">
         <v>206.097412</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R66" s="0" t="n">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S68" s="0" t="n">
         <v>190.870903</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R67" s="0" t="n">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S69" s="0" t="n">
         <v>176.493896</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R68" s="0" t="n">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S70" s="0" t="n">
         <v>265.650156</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R69" s="0" t="n">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S71" s="0" t="n">
         <v>236.679529</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R70" s="0" t="n">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S72" s="0" t="n">
         <v>229.594089</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R71" s="0" t="n">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S73" s="0" t="n">
         <v>208.984681</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R72" s="0" t="n">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S74" s="0" t="n">
         <v>195.70303</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R73" s="0" t="n">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S75" s="0" t="n">
         <v>150.377238</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R74" s="0" t="n">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S76" s="0" t="n">
         <v>157.852994</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R75" s="0" t="n">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S77" s="0" t="n">
         <v>197.147277</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R76" s="0" t="n">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S78" s="0" t="n">
         <v>318.460482</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R77" s="0" t="n">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S79" s="0" t="n">
         <v>184.044825</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R78" s="0" t="n">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S80" s="0" t="n">
         <v>164.964813</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R79" s="0" t="n">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S81" s="0" t="n">
         <v>133.338296</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R80" s="0" t="n">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S82" s="0" t="n">
         <v>134.56447</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R81" s="0" t="n">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S83" s="0" t="n">
         <v>219.835518</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R82" s="0" t="n">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S84" s="0" t="n">
         <v>154.810519</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R83" s="0" t="n">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S85" s="0" t="n">
         <v>142.862239</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R84" s="0" t="n">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S86" s="0" t="n">
         <v>130.051196</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R85" s="0" t="n">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S87" s="0" t="n">
         <v>114.40243</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R86" s="0" t="n">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S88" s="0" t="n">
         <v>262.733109</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R87" s="0" t="n">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S89" s="0" t="n">
         <v>276.075523</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R88" s="0" t="n">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S90" s="0" t="n">
         <v>272.649683</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R89" s="0" t="n">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S91" s="0" t="n">
         <v>192.986631</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R90" s="0" t="n">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S92" s="0" t="n">
         <v>191.441522</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R91" s="0" t="n">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S93" s="0" t="n">
         <v>176.618715</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R92" s="0" t="n">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S94" s="0" t="n">
         <v>182.852197</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R93" s="0" t="n">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S95" s="0" t="n">
         <v>144.644061</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R94" s="0" t="n">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S96" s="0" t="n">
         <v>120.537505</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R95" s="0" t="n">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S97" s="0" t="n">
         <v>106.50106</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R96" s="0" t="n">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S98" s="0" t="n">
         <v>241.714706</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R97" s="0" t="n">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S99" s="0" t="n">
         <v>218.82127</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R98" s="0" t="n">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S100" s="0" t="n">
         <v>174.77363</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R99" s="0" t="n">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S101" s="0" t="n">
         <v>144.826837</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R100" s="0" t="n">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S102" s="0" t="n">
         <v>126.157588</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R101" s="0" t="n">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S103" s="0" t="n">
         <v>121.785655</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R102" s="0" t="n">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S104" s="0" t="n">
         <v>162.041039</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R103" s="0" t="n">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S105" s="0" t="n">
         <v>227.753464</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R104" s="0" t="n">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S106" s="0" t="n">
         <v>197.914687</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R105" s="0" t="n">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S107" s="0" t="n">
         <v>189.505263</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R106" s="0" t="n">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S108" s="0" t="n">
         <v>167.073938</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R107" s="0" t="n">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S109" s="0" t="n">
         <v>153.579061</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R108" s="0" t="n">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S110" s="0" t="n">
         <v>128.780942</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R109" s="0" t="n">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S111" s="0" t="n">
         <v>120.489064</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R110" s="0" t="n">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S112" s="0" t="n">
         <v>217.710288</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R111" s="0" t="n">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S113" s="0" t="n">
         <v>253.621994</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R112" s="0" t="n">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S114" s="0" t="n">
         <v>178.951442</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R113" s="0" t="n">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S115" s="0" t="n">
         <v>174.132195</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R114" s="0" t="n">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S116" s="0" t="n">
         <v>119.166051</v>
       </c>
     </row>
@@ -2998,10 +3637,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3010,334 +3649,337 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AE1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AG1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AI1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <f aca="false">A5/B5*100</f>
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">B5/C5*100</f>
         <v>100</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">C5/D5*100</f>
+      <c r="D2" s="0" t="n">
+        <f aca="false">D5/E5*100</f>
         <v>100</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">E5/F5*100</f>
+      <c r="F2" s="0" t="n">
+        <f aca="false">F5/G5*100</f>
         <v>84.6153846153846</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">G5/H5*100</f>
+      <c r="H2" s="0" t="n">
+        <f aca="false">H5/I5*100</f>
         <v>100</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <f aca="false">I5/J5*100</f>
+      <c r="J2" s="0" t="n">
+        <f aca="false">J5/K5*100</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <f aca="false">K5/L5*100</f>
+      <c r="L2" s="0" t="n">
+        <f aca="false">L5/M5*100</f>
         <v>50</v>
       </c>
-      <c r="M2" s="0" t="n">
-        <f aca="false">M5/N5*100</f>
+      <c r="N2" s="0" t="n">
+        <f aca="false">N5/O5*100</f>
         <v>100</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <f aca="false">O5/P5*100</f>
+      <c r="P2" s="0" t="n">
+        <f aca="false">P5/Q5*100</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="Q2" s="0" t="n">
-        <f aca="false">Q5/R5*100</f>
+      <c r="R2" s="0" t="n">
+        <f aca="false">R5/S5*100</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="S2" s="0" t="n">
-        <f aca="false">S5/T5*100</f>
+      <c r="T2" s="0" t="n">
+        <f aca="false">T5/U5*100</f>
         <v>33.3333333333333</v>
       </c>
-      <c r="U2" s="0" t="n">
-        <f aca="false">U5/V5*100</f>
+      <c r="V2" s="0" t="n">
+        <f aca="false">V5/W5*100</f>
         <v>16.6666666666667</v>
       </c>
-      <c r="W2" s="0" t="n">
-        <f aca="false">W5/X5*100</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <f aca="false">Z5/AA5*100</f>
+      <c r="X2" s="0" t="n">
+        <f aca="false">X5/Y5*100</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <f aca="false">AA5/AB5*100</f>
         <v>80</v>
       </c>
-      <c r="AB2" s="0" t="n">
-        <f aca="false">AB5/AC5*100</f>
+      <c r="AC2" s="0" t="n">
+        <f aca="false">AC5/AD5*100</f>
         <v>100</v>
       </c>
-      <c r="AD2" s="0" t="n">
-        <f aca="false">AD5/AE5*100</f>
+      <c r="AE2" s="0" t="n">
+        <f aca="false">AE5/AF5*100</f>
         <v>100</v>
       </c>
-      <c r="AF2" s="0" t="n">
-        <f aca="false">AF5/AG5*100</f>
+      <c r="AG2" s="0" t="n">
+        <f aca="false">AG5/AH5*100</f>
         <v>40</v>
       </c>
-      <c r="AH2" s="0" t="n">
-        <f aca="false">AH5/AI5*100</f>
+      <c r="AI2" s="0" t="n">
+        <f aca="false">AI5/AJ5*100</f>
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="B5" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>13</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>11</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>10</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>6</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>6</v>
       </c>
       <c r="O5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="W5" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>10</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>6</v>
       </c>
       <c r="AC5" s="0" t="n">
         <v>6</v>
       </c>
       <c r="AD5" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="AF5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3357,10 +3999,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3369,419 +4011,565 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0</v>
+      <c r="A2" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B1114)</f>
         <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
+        <f aca="false">AVERAGE(C4:C1114)</f>
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
+        <f aca="false">AVERAGE(D4:D1114)</f>
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
+        <f aca="false">AVERAGE(E4:E1114)</f>
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F1114)</f>
         <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G1114)</f>
         <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
+        <f aca="false">AVERAGE(H4:H1114)</f>
         <v>0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0</v>
+        <f aca="false">AVERAGE(I4:I1114)</f>
+        <v>0.2</v>
       </c>
       <c r="J2" s="0" t="n">
+        <f aca="false">AVERAGE(J4:J1114)</f>
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">AVERAGE(K4:K1114)</f>
+        <v>0.8</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">AVERAGE(L4:L1114)</f>
+        <v>68.25</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">AVERAGE(M4:M1114)</f>
+        <v>1028</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">AVERAGE(O4:O1114)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">AVERAGE(P4:P1114)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">AVERAGE(Q4:Q1114)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">AVERAGE(R4:R1114)</f>
+        <v>4.2</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">AVERAGE(S4:S1114)</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(B4:B1114)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(C4:C1114)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(D4:D1114)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(E4:E1114)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F4:F1114)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(G4:G1114)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(H4:H1114)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(I4:I1114)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(J4:J1114)</f>
+        <v>0.4</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(K4:K1114)</f>
+        <v>0.748331477354788</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(L4:L1114)</f>
+        <v>112.45971500942</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(M4:M1114)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(O4:O1114)</f>
+        <v>0.4</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(P4:P1114)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(Q4:Q1114)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(R4:R1114)</f>
+        <v>3.65513337649941</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(S4:S1114)</f>
+        <v>6.68131723539603</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>1028</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0" t="n">
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="n">
+      <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
+      <c r="O7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0" t="n">
+      <c r="O8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S8" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="B12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3801,10 +4589,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3813,420 +4601,733 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">AVERAGE(B4:B1114)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">AVERAGE(C4:C1114)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">AVERAGE(D4:D1114)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">AVERAGE(E4:E1114)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F1114)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">AVERAGE(G4:G1114)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">AVERAGE(H4:H1114)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">AVERAGE(I4:I1114)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">AVERAGE(J4:J1114)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">AVERAGE(K4:K1114)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">AVERAGE(L4:L1114)</f>
+        <v>66.25</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">AVERAGE(M4:M1114)</f>
+        <v>1022</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">AVERAGE(O4:O1114)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">AVERAGE(P4:P1114)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">AVERAGE(Q4:Q1114)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">AVERAGE(R4:R1114)</f>
+        <v>4.2</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">AVERAGE(S4:S1114)</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(B4:B1114)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(C4:C1114)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(D4:D1114)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(E4:E1114)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(F4:F1114)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(G4:G1114)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(H4:H1114)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(I4:I1114)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(J4:J1114)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(K4:K1114)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(L4:L1114)</f>
+        <v>113.596599861087</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(M4:M1114)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(O4:O1114)</f>
+        <v>0.4</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(P4:P1114)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(Q4:Q1114)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(R4:R1114)</f>
+        <v>3.65513337649941</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(S4:S1114)</f>
+        <v>6.68131723539603</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1022</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.3316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>1022</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>263</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="n">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
